--- a/Excel/amr_export_options.xlsx
+++ b/Excel/amr_export_options.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parimal\Documents\GitHub\audacity-mr\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179AEBA1-8AFF-4586-B0BD-4D67A1EDAA4B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -58,47 +64,47 @@
     <t>Due to the format specification, AMR-NB files are always exported at 8000 Hz sample rate irrespective of the Audacity Project Rate.</t>
   </si>
   <si>
-    <t>एएमआर निर्यात पर्याय - ऑडेसिटी मॅन्युअल</t>
-  </si>
-  <si>
     <t>एएमआर निर्यात पर्याय</t>
   </si>
   <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
     <t>येथे जा: सुचालन, शोध</t>
   </si>
   <si>
-    <t>एएमआर अ‍ॅडॉप्टिव्ह मल्टी-रेट कोडेक एक पेटंट कम्प्रेशन स्कीम आहे जी भाषणासाठी अनुकूलित आहे, परंतु मोबाइल टेलिफोन रिंगटोनसाठी देखील वापरली जाते. वाईड बँड प्रकार उच्च गुणवत्तेसाठी उच्च बँडविड्थ वापरते.</t>
-  </si>
-  <si>
-    <t>याद्वारे प्रवेश केलेले: फाइल&gt; निर्यात&gt; ऑडिओ निर्यात करा ... नंतर सेव्ह म्हणून टाइप ड्रॉपडाउन मेनूमधून एएमआर (अरुंद बँड) फायली (एफएफएमपीएग) निवडणे.</t>
-  </si>
-  <si>
-    <t>याद्वारे देखील प्रवेश: फाइल&gt; निर्यात&gt; एकाधिक निर्यात करा ... त्यानंतर सेव्ह म्हणून टाइप ड्रॉपडाउन मेनूमधून एएमआर (अरुंद बँड) फायली (एफएफएमपीएग) निवडणे.</t>
-  </si>
-  <si>
     <t>अशावेळी निर्यात संवाद एकाधिक संवादाच्या मध्यभागी दिसेल.</t>
   </si>
   <si>
-    <t>एफएफम्पेग ऑडसिटीसह पाठविला जात नाही परंतु आपण त्या डाउनलोड करुन नंतर या सूचनांचे अनुसरण करून एएमआर (एनबी) म्हणून निर्यात करू शकता.</t>
-  </si>
-  <si>
-    <t>एएमआर-एनबी एक्सपोर्ट सेटअप</t>
-  </si>
-  <si>
-    <t>बिट रेटः 4.75 केबीपीएस ते 12.2 केबीपीएस पर्यंत (12.2 केबीपीएसवर डीफॉल्ट) थोडा दर निवडा. उच्च बिट दर उच्च गुणवत्ता देतात परंतु मोठ्या फायली तयार करतात.</t>
-  </si>
-  <si>
-    <t>स्वरूपन तपशीलामुळे, एएमआर-एनबी फायली ऑडसिटी प्रोजेक्ट दराकडे दुर्लक्ष करून नेहमीच 8000 हर्ट्ज नमुना दराने निर्यात केली जातात.</t>
+    <t>एएमआर निर्यात पर्याय - ओड्यासिटी माहितीपुस्तिका</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकास माहितीपुस्तिका वरुन</t>
+  </si>
+  <si>
+    <t>एएमआर अनुकुली बहु-मूल्य कोडेक एक पेटंट संकुचन योजना आहे जी भाषणासाठी अनुकूलित आहे, परंतु भ्रमणध्वनी दूरध्वनी रिंगटोनसाठी देखील वापरली जाते. रुंद फीत प्रकार उच्च गुणवत्तेसाठी उच्च बँडविड्थ वापरते.</t>
+  </si>
+  <si>
+    <t>याद्वारे प्रवेश केलेले: धारिका&gt; निर्यात&gt; ध्वनी निर्यात करा ... नंतर जतन म्हणून प्रकार ड्रॉपडाउन मेनूमधून एएमआर (अरुंद बँड) धारिका (एफएफएमपीएग) निवडणे.</t>
+  </si>
+  <si>
+    <t>याद्वारे देखील प्रवेश: धारिका&gt; निर्यात&gt; एकाधिक निर्यात करा ... त्यानंतर जतन म्हणून प्रकारे ड्रॉपडाउन मेनूमधून एएमआर (अरुंद बँड) धारिका (एफएफएमपीएग) निवडणे.</t>
+  </si>
+  <si>
+    <t>एफएफम्पेग ओड्यासिटीसह पाठविला जात नाही परंतु आपण त्या डाउनलोड करुन नंतर या सूचनांचे अनुसरण करून एएमआर (एनबी) म्हणून निर्यात करू शकता.</t>
+  </si>
+  <si>
+    <t>एएमआर-एनबी निर्यात रचना</t>
+  </si>
+  <si>
+    <t>स्वरूपन तपशीलामुळे, एएमआर-एनबी धारिका ओड्यासिटी प्रकल्प दराकडे दुर्लक्ष करून नेहमीच ८००० हर्ट्ज नमुना दराने निर्यात केली जातात.</t>
+  </si>
+  <si>
+    <t>बिट रेटः ४.७५ केबीपीएस ते १२.२ केबीपीएस पर्यंत (१२.२ केबीपीएसवर पूर्वनियोजित) थोडा दर निवडा. उच्च बिट दर उच्च गुणवत्ता देतात परंतु मोठ्या धारिका तयार करतात.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,10 +156,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -161,6 +173,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -207,7 +227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,9 +259,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,6 +311,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -448,151 +504,157 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="93.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="94.21875" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
